--- a/assets/files/bieu_mau_tao_goi_thau_invest.xlsx
+++ b/assets/files/bieu_mau_tao_goi_thau_invest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuank\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\vcc\cbms\test\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FE2919-5E7A-4931-9101-1A6B7EFD356C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAC82BB-5EC6-400D-883C-6DFD7FB1E2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5475" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Value" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="CITY_LABEL">Metadata!$AK$3:$AK$37</definedName>
-    <definedName name="CITY_MAP">Metadata!$AK$3:$AL$37</definedName>
+    <definedName name="CITY_LABEL">Metadata!$AK$3:$AK$38</definedName>
+    <definedName name="CITY_MAP">Metadata!$AK$3:$AL$38</definedName>
     <definedName name="CONTRACT_TYPE_LABEL">Metadata!$S$3:$S$5</definedName>
     <definedName name="CONTRACT_TYPE_MAP">Metadata!$S$3:$T$5</definedName>
     <definedName name="FIELD_TYPE_LABEL">Metadata!$G$3:$G$6</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="114">
   <si>
     <r>
       <t>Giá gói thầu</t>
@@ -278,13 +278,13 @@
     <t>Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Luật đấu thầu </t>
+    <t>Luật đấu thầu</t>
   </si>
   <si>
     <t>Quy định mua sắm của TCT</t>
   </si>
   <si>
-    <t xml:space="preserve">Khác </t>
+    <t>Khác</t>
   </si>
   <si>
     <t>Đấu thầu không qua mạng</t>
@@ -293,25 +293,25 @@
     <t>Lĩnh vực</t>
   </si>
   <si>
-    <t xml:space="preserve">Hàng hóa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tư vấn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phi tư vấn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xây lắp </t>
+    <t>Hàng hóa</t>
+  </si>
+  <si>
+    <t>Tư vấn</t>
+  </si>
+  <si>
+    <t>Phi tư vấn</t>
+  </si>
+  <si>
+    <t>Xây lắp</t>
   </si>
   <si>
     <t>Phương thức LCNT</t>
   </si>
   <si>
-    <t xml:space="preserve">Một giai đoạn một túi hồ sơ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Một giai đoạn hai túi hồ sơ </t>
+    <t>Một giai đoạn một túi hồ sơ</t>
+  </si>
+  <si>
+    <t>Một giai đoạn hai túi hồ sơ</t>
   </si>
   <si>
     <t>Hình thức LCNT đầu tư</t>
@@ -356,13 +356,13 @@
     <t>Loại hợp đồng</t>
   </si>
   <si>
-    <t xml:space="preserve">Trọn gói </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đơn giá cố định </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đơn giá điều chỉnh </t>
+    <t>Trọn gói</t>
+  </si>
+  <si>
+    <t>Đơn giá cố định</t>
+  </si>
+  <si>
+    <t>Đơn giá điều chỉnh</t>
   </si>
   <si>
     <t>Thời gian bắt đầu tổ chức LCNT (đơn vị)</t>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>An Giang</t>
-  </si>
-  <si>
-    <t>3.000.000</t>
   </si>
   <si>
     <t>TA autotest</t>
@@ -564,7 +561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="90" x14ac:knownFonts="1">
+  <fonts count="105" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -580,442 +577,502 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1082,274 +1139,324 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1687,28 +1794,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" customWidth="1"/>
-    <col min="12" max="12" width="43.85546875" customWidth="1"/>
-    <col min="13" max="13" width="38.85546875" customWidth="1"/>
-    <col min="14" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="31.85546875" customWidth="1"/>
-    <col min="17" max="17" width="38.85546875" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" customWidth="1"/>
+    <col min="11" max="11" width="44.85546875" customWidth="1"/>
+    <col min="12" max="12" width="45.85546875" customWidth="1"/>
+    <col min="13" max="13" width="40.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="33.85546875" customWidth="1"/>
+    <col min="17" max="17" width="40.85546875" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,56 +1875,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:18" s="107" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>3000000</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="20">
         <v>2024</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="P2">
+      <c r="O2" s="21"/>
+      <c r="P2" s="22">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="105" t="s">
         <v>74</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="106" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1825,7 +1934,7 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Lỗi nhập liệu" error="Tên gói thầu vượt quá 100 ký tự!" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>100</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Lỗi nhập liệu" error="Tóm tắt công việc chính của gói thầu vượt quá 200 ký tự!" sqref="C2" xr:uid="{49EEE23A-5F2C-416B-8918-D9C50D837B1F}">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Lỗi nhập liệu" error="Tóm tắt công việc chính của gói thầu vượt quá 200 ký tự!" sqref="C2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>200</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -1883,7 +1992,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AL37"/>
+  <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1891,11 +2000,11 @@
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
     <col min="16" max="16" width="35" customWidth="1"/>
-    <col min="19" max="19" width="21" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
     <col min="22" max="22" width="7" customWidth="1"/>
     <col min="25" max="25" width="7" customWidth="1"/>
     <col min="28" max="28" width="7" customWidth="1"/>
@@ -1905,26 +2014,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="87"/>
+      <c r="D1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="69"/>
-      <c r="G1" s="70" t="s">
+      <c r="E1" s="89"/>
+      <c r="G1" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="71"/>
-      <c r="J1" s="72" t="s">
+      <c r="H1" s="91"/>
+      <c r="J1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="73"/>
-      <c r="M1" s="74" t="s">
+      <c r="K1" s="93"/>
+      <c r="M1" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="75"/>
+      <c r="N1" s="95"/>
       <c r="P1" s="76" t="s">
         <v>43</v>
       </c>
@@ -1945,723 +2054,736 @@
         <v>58</v>
       </c>
       <c r="AC1" s="85"/>
-      <c r="AE1" s="86" t="s">
+      <c r="AE1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="87"/>
-      <c r="AH1" s="88" t="s">
+      <c r="AF1" s="71"/>
+      <c r="AH1" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AI1" s="89"/>
-      <c r="AK1" s="90" t="s">
+      <c r="AI1" s="73"/>
+      <c r="AK1" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="AL1" s="91"/>
+      <c r="AL1" s="75"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="S2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="36" t="s">
+      <c r="V2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="Y2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="41" t="s">
+      <c r="AC2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="42" t="s">
+      <c r="AE2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AF2" s="43" t="s">
+      <c r="AF2" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AH2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="AI2" s="45" t="s">
+      <c r="AI2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="46" t="s">
+      <c r="AK2" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AL2" s="47" t="s">
+      <c r="AL2" s="50" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="26">
         <v>28</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="26">
         <v>0</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="26">
         <v>31</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="26">
         <v>40</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="26">
         <v>35</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="26">
         <v>37</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="26">
         <v>42</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="26">
         <v>1</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y3" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="23">
+      <c r="Z3" s="26">
         <v>1</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AB3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="23">
+      <c r="AC3" s="26">
         <v>1</v>
       </c>
-      <c r="AE3" s="22" t="s">
+      <c r="AE3" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AF3" s="23">
+      <c r="AF3" s="26">
         <v>0</v>
       </c>
-      <c r="AH3" s="22" t="s">
+      <c r="AH3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AI3" s="23">
+      <c r="AI3" s="26">
         <v>1</v>
       </c>
-      <c r="AK3" s="22" t="s">
+      <c r="AK3" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AL3" s="23">
+      <c r="AL3" s="26">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="26">
         <v>29</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="26">
         <v>1</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="26">
         <v>32</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="26">
         <v>41</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="26">
         <v>36</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="23">
+      <c r="Q4" s="26">
         <v>38</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="23">
+      <c r="T4" s="26">
         <v>43</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="26">
         <v>2</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="Z4" s="26">
         <v>2</v>
       </c>
-      <c r="AB4" s="22" t="s">
+      <c r="AB4" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="AC4" s="23">
+      <c r="AC4" s="26">
         <v>2</v>
       </c>
-      <c r="AE4" s="22" t="s">
+      <c r="AE4" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AF4" s="23">
+      <c r="AF4" s="26">
         <v>1</v>
       </c>
-      <c r="AH4" s="22" t="s">
+      <c r="AH4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="AI4" s="23">
+      <c r="AI4" s="26">
         <v>2</v>
       </c>
-      <c r="AK4" s="22" t="s">
+      <c r="AK4" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="AL4" s="23">
+      <c r="AL4" s="26">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="26">
         <v>30</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="26">
         <v>33</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="26">
         <v>104</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="26">
         <v>39</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="23">
+      <c r="T5" s="26">
         <v>44</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="23">
+      <c r="Z5" s="26">
         <v>3</v>
       </c>
-      <c r="AB5" s="22" t="s">
+      <c r="AB5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="AC5" s="23">
+      <c r="AC5" s="26">
         <v>3</v>
       </c>
-      <c r="AH5" s="22" t="s">
+      <c r="AH5" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AI5" s="23">
+      <c r="AI5" s="26">
         <v>3</v>
       </c>
-      <c r="AK5" s="22" t="s">
+      <c r="AK5" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="AL5" s="23">
+      <c r="AL5" s="26">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="26">
         <v>34</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="26">
         <v>105</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="26">
         <v>48</v>
       </c>
-      <c r="Y6" s="22" t="s">
+      <c r="Y6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="Z6" s="23">
+      <c r="Z6" s="26">
         <v>4</v>
       </c>
-      <c r="AB6" s="22" t="s">
+      <c r="AB6" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AC6" s="23">
+      <c r="AC6" s="26">
         <v>4</v>
       </c>
-      <c r="AK6" s="22" t="s">
+      <c r="AK6" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="AL6" s="23">
+      <c r="AL6" s="26">
         <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="26">
         <v>106</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="26">
         <v>110</v>
       </c>
-      <c r="AB7" s="22" t="s">
+      <c r="AB7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="AC7" s="23">
+      <c r="AC7" s="26">
         <v>5</v>
       </c>
-      <c r="AK7" s="22" t="s">
+      <c r="AK7" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="AL7" s="23">
+      <c r="AL7" s="26">
         <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="26">
         <v>107</v>
       </c>
-      <c r="P8" s="22" t="s">
+      <c r="P8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="26">
         <v>111</v>
       </c>
-      <c r="AB8" s="22" t="s">
+      <c r="AB8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="AC8" s="23">
+      <c r="AC8" s="26">
         <v>6</v>
       </c>
-      <c r="AK8" s="22" t="s">
+      <c r="AK8" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AL8" s="23">
+      <c r="AL8" s="26">
         <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="26">
         <v>108</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="26">
         <v>112</v>
       </c>
-      <c r="AB9" s="22" t="s">
+      <c r="AB9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AC9" s="23">
+      <c r="AC9" s="26">
         <v>7</v>
       </c>
-      <c r="AK9" s="22" t="s">
+      <c r="AK9" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="AL9" s="23">
+      <c r="AL9" s="26">
         <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="26">
         <v>109</v>
       </c>
-      <c r="P10" s="22" t="s">
+      <c r="P10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="26">
         <v>113</v>
       </c>
-      <c r="AB10" s="22" t="s">
+      <c r="AB10" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="AC10" s="23">
+      <c r="AC10" s="26">
         <v>8</v>
       </c>
-      <c r="AK10" s="22" t="s">
+      <c r="AK10" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AL10" s="23">
+      <c r="AL10" s="26">
         <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="26">
         <v>185</v>
       </c>
-      <c r="P11" s="22" t="s">
+      <c r="P11" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="26">
         <v>114</v>
       </c>
-      <c r="AB11" s="22" t="s">
+      <c r="AB11" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="AC11" s="23">
+      <c r="AC11" s="26">
         <v>9</v>
       </c>
-      <c r="AK11" s="22" t="s">
+      <c r="AK11" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AL11" s="23">
+      <c r="AL11" s="26">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="P12" s="22" t="s">
+      <c r="P12" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="26">
         <v>115</v>
       </c>
-      <c r="AB12" s="22" t="s">
+      <c r="AB12" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="AC12" s="23">
+      <c r="AC12" s="26">
         <v>10</v>
       </c>
-      <c r="AK12" s="22" t="s">
+      <c r="AK12" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AL12" s="23">
+      <c r="AL12" s="26">
         <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="26">
         <v>186</v>
       </c>
-      <c r="AB13" s="22" t="s">
+      <c r="AB13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="AC13" s="23">
+      <c r="AC13" s="26">
         <v>11</v>
       </c>
-      <c r="AK13" s="22" t="s">
+      <c r="AK13" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="AL13" s="23">
+      <c r="AL13" s="26">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AB14" s="22" t="s">
+      <c r="AB14" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="AC14" s="23">
+      <c r="AC14" s="26">
         <v>12</v>
       </c>
-      <c r="AK14" s="22" t="s">
+      <c r="AK14" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AL14" s="23">
+      <c r="AL14" s="26">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AK15" s="22" t="s">
+      <c r="AK15" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="AL15" s="23">
+      <c r="AL15" s="26">
         <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="AK16" s="22" t="s">
+      <c r="AK16" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="AL16" s="23">
+      <c r="AL16" s="26">
         <v>163</v>
       </c>
     </row>
     <row r="17" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK17" s="22" t="s">
+      <c r="AK17" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="AL17" s="23">
+      <c r="AL17" s="26">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK18" s="22" t="s">
+      <c r="AK18" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AL18" s="23">
+      <c r="AL18" s="26">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK19" s="22" t="s">
+      <c r="AK19" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="AL19" s="23">
+      <c r="AL19" s="26">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK20" s="22" t="s">
+      <c r="AK20" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="AL20" s="23">
+      <c r="AL20" s="26">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK21" s="22" t="s">
+      <c r="AK21" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="AL21" s="23">
+      <c r="AL21" s="26">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK22" s="22" t="s">
+      <c r="AK22" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="AL22" s="23">
+      <c r="AL22" s="26">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK23" s="22" t="s">
+      <c r="AK23" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="AL23" s="23">
+      <c r="AL23" s="26">
         <v>170</v>
       </c>
     </row>
     <row r="24" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK24" s="22" t="s">
+      <c r="AK24" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="AL24" s="23">
+      <c r="AL24" s="26">
         <v>171</v>
       </c>
     </row>
     <row r="25" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK25" s="22" t="s">
+      <c r="AK25" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="AL25" s="23">
+      <c r="AL25" s="26">
         <v>172</v>
       </c>
     </row>
     <row r="26" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK26" s="22" t="s">
+      <c r="AK26" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="AL26" s="23">
+      <c r="AL26" s="26">
         <v>173</v>
       </c>
     </row>
     <row r="27" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK27" s="22" t="s">
+      <c r="AK27" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="AL27" s="23">
+      <c r="AL27" s="26">
         <v>174</v>
       </c>
     </row>
     <row r="28" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK28" s="22" t="s">
+      <c r="AK28" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="AL28" s="23">
+      <c r="AL28" s="26">
         <v>175</v>
       </c>
     </row>
     <row r="29" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK29" s="22" t="s">
+      <c r="AK29" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="AL29" s="23">
+      <c r="AL29" s="26">
         <v>176</v>
       </c>
     </row>
     <row r="30" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK30" s="22" t="s">
+      <c r="AK30" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="AL30" s="23">
+      <c r="AL30" s="26">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK31" s="22" t="s">
+      <c r="AK31" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="AL31" s="23">
+      <c r="AL31" s="26">
         <v>178</v>
       </c>
     </row>
     <row r="32" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK32" s="22" t="s">
+      <c r="AK32" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="AL32" s="23">
+      <c r="AL32" s="26">
         <v>179</v>
       </c>
     </row>
     <row r="33" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK33" s="22" t="s">
+      <c r="AK33" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="AL33" s="23">
+      <c r="AL33" s="26">
         <v>180</v>
       </c>
     </row>
     <row r="34" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK34" s="22" t="s">
+      <c r="AK34" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="AL34" s="23">
+      <c r="AL34" s="26">
         <v>181</v>
       </c>
     </row>
     <row r="35" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK35" s="22" t="s">
+      <c r="AK35" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="AL35" s="23">
+      <c r="AL35" s="26">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK36" s="22" t="s">
+      <c r="AK36" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="AL36" s="23">
+      <c r="AL36" s="26">
         <v>183</v>
       </c>
     </row>
     <row r="37" spans="37:38" x14ac:dyDescent="0.25">
-      <c r="AK37" s="22" t="s">
+      <c r="AK37" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AL37" s="23">
+      <c r="AL37" s="26">
         <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="37:38" x14ac:dyDescent="0.25">
+      <c r="AK38" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL38" s="26">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AK1:AL1"/>
@@ -2670,11 +2792,6 @@
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2688,84 +2805,85 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" customWidth="1"/>
-    <col min="12" max="12" width="43.85546875" customWidth="1"/>
-    <col min="13" max="13" width="38.85546875" customWidth="1"/>
-    <col min="14" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="31.85546875" customWidth="1"/>
-    <col min="17" max="17" width="38.85546875" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" customWidth="1"/>
+    <col min="11" max="11" width="44.85546875" customWidth="1"/>
+    <col min="12" max="12" width="45.85546875" customWidth="1"/>
+    <col min="13" max="13" width="40.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="33.85546875" customWidth="1"/>
+    <col min="17" max="17" width="40.85546875" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="68" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>IF(LEN(Input!A2)=0, "", Input!A2)</f>
-        <v>3.000.000</v>
+        <v>3000000</v>
       </c>
       <c r="B2" t="str">
         <f>IF(LEN(Input!B2)=0, "", Input!B2)</f>
